--- a/biology/Botanique/Camellia_grijsii/Camellia_grijsii.xlsx
+++ b/biology/Botanique/Camellia_grijsii/Camellia_grijsii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camellia grijsii est une espèce de plantes à fleurs de la famille des Theaceae.
 </t>
@@ -511,13 +523,15 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (9 avril 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (9 avril 2019) :
 variété Camellia grijsii var. shensiensis
-Selon NCBI  (9 avril 2019)[3] :
+Selon NCBI  (9 avril 2019) :
 variété Camellia grijsii var. shensiensis (Hung T.Chang) T.L.Ming
-Selon Tropicos                                           (9 avril 2019)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 avril 2019) (Attention liste brute contenant possiblement des synonymes) :
 variété Camellia grijsii var. grijsii
 variété Camellia grijsii var. shensiensis (H.T. Chang) T.L. Ming</t>
         </is>
@@ -547,7 +561,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Journal of Botany, British and Foreign 17: 9. 1879.</t>
         </is>
